--- a/Project Plans/Project Plan Template.xlsx
+++ b/Project Plans/Project Plan Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Documents\Partner\TTV\Artificats showing Plan\3. Project Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Documents\GitHub\SaviyntArtifacts\Project Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA2B20-5422-4E97-9745-313B304E53F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C29B10C-46E8-41A6-B6F9-F3892672AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E121D6-4333-4D47-8398-F17B54A59A49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D6E121D6-4333-4D47-8398-F17B54A59A49}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="2" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t xml:space="preserve">         SIEM configuration to read Saviynt API</t>
   </si>
   <si>
-    <t xml:space="preserve">         SIEM Functionality Demo to PenFed</t>
-  </si>
-  <si>
     <t xml:space="preserve">   CPAM UAT Support</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t xml:space="preserve">         Provide API details to Customer Q-Radar team to consume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         SIEM Functionality Demo to Customer</t>
   </si>
 </sst>
 </file>
@@ -919,7 +919,7 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -931,36 +931,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -1014,7 +1014,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -1121,7 +1121,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>29</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>35</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>36</v>
@@ -1512,9 +1512,9 @@
       <c r="H37" s="9"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>37</v>
@@ -1523,7 +1523,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>38</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>39</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="41" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>41</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>42</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>43</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -1636,7 +1636,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="7"/>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
@@ -1653,7 +1653,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="7"/>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>46</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>47</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="49" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>48</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="2"/>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>49</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>50</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>51</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>20</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>52</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="58" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>53</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="59" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>54</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>55</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>56</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>57</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>58</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>59</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>60</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>61</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="67" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>62</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="68" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>63</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="69" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>64</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>65</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="71" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>66</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="72" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>67</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>68</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>69</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="75" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>70</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="76" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>71</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>72</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>73</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>74</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>75</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>76</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>77</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>78</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>79</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>80</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>81</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>82</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>83</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>84</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="90" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="91" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>86</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="92" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>87</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="93" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>88</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="94" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>89</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>90</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>91</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>92</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>93</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="99" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>94</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="100" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>95</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>96</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="102" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>97</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="104" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>98</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="105" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="107" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -2614,10 +2614,10 @@
     </row>
     <row r="108" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="109" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>40</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>41</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="112" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="113" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>44</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="114" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>45</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="116" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="117" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -2776,10 +2776,10 @@
     </row>
     <row r="118" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="119" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="120" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="121" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="122" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="123" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="124" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>48</v>
